--- a/PCB/ESP8266_RGB_Matrix_Rev2.2.xlsx
+++ b/PCB/ESP8266_RGB_Matrix_Rev2.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Dropbox\Arduino_PCB\ESP8266_RGB_Matrix\Project Outputs for ESP8266_RGB_Matrix_Rev2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrankin\Dropbox\Arduino_PCB\ESP8266_RGB_Matrix\Project Outputs for ESP8266_RGB_Matrix_Rev2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98F7DC16-B8BD-4F0C-863C-04DCD9055227}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D1CDC6E-C3DE-48D1-9772-82477FB70C23}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="585" windowWidth="18990" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8953" yWindow="587" windowWidth="18993" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>PPTC082LFBN-RC</t>
   </si>
   <si>
-    <t>3-641213-4</t>
-  </si>
-  <si>
     <t>PJ-102AH</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>CONN RECEPT 16POS .100 VERT DUAL</t>
   </si>
   <si>
-    <t>CONN RECEPT VERT 4POS .156 30AU</t>
-  </si>
-  <si>
     <t>CONN PWR JACK 2X5.5MM SOLDER</t>
   </si>
   <si>
@@ -317,9 +311,6 @@
     <t>Sullins</t>
   </si>
   <si>
-    <t>TE</t>
-  </si>
-  <si>
     <t>CUI</t>
   </si>
   <si>
@@ -429,6 +420,15 @@
   </si>
   <si>
     <t xml:space="preserve"> RES SMD 10K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>FHP-04-01-T-S</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>CONN RCPT .156" 4POS TIN T/H</t>
   </si>
 </sst>
 </file>
@@ -1472,25 +1472,25 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.53125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.41015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.52734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.87890625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.234375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.1171875" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.53125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.52734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.64453125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1328125" style="1"/>
+    <col min="11" max="16384" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="5"/>
@@ -1502,7 +1502,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32" t="s">
@@ -1526,7 +1526,7 @@
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
       <c r="F3" s="44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -1541,7 +1541,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="22"/>
@@ -1558,7 +1558,7 @@
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="14"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -1569,7 +1569,7 @@
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29" t="s">
@@ -1586,7 +1586,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26" t="s">
@@ -1595,17 +1595,17 @@
       <c r="D8" s="26"/>
       <c r="E8" s="30">
         <f ca="1">TODAY()</f>
-        <v>43260</v>
+        <v>43273</v>
       </c>
       <c r="F8" s="31">
         <f ca="1">NOW()</f>
-        <v>43260.892785416669</v>
+        <v>43273.411731712964</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="38" t="s">
         <v>21</v>
@@ -1623,16 +1623,16 @@
         <v>52</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="37">
         <f t="shared" ref="B10:B29" si="0">ROW(B10) - ROW($B$9)</f>
@@ -1651,16 +1651,16 @@
         <v>53</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
       <c r="B11" s="39">
         <f t="shared" si="0"/>
@@ -1679,16 +1679,16 @@
         <v>54</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="37">
         <f t="shared" si="0"/>
@@ -1707,16 +1707,16 @@
         <v>55</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
       <c r="B13" s="39">
         <f t="shared" si="0"/>
@@ -1735,16 +1735,16 @@
         <v>56</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
       <c r="B14" s="37">
         <f t="shared" si="0"/>
@@ -1763,16 +1763,16 @@
         <v>57</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="39">
         <f t="shared" si="0"/>
@@ -1791,16 +1791,16 @@
         <v>58</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
       <c r="B16" s="37">
         <f t="shared" si="0"/>
@@ -1819,16 +1819,16 @@
         <v>58</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="39">
         <f t="shared" si="0"/>
@@ -1847,16 +1847,16 @@
         <v>59</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="37">
         <f t="shared" si="0"/>
@@ -1875,16 +1875,16 @@
         <v>60</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
       <c r="B19" s="39">
         <f t="shared" si="0"/>
@@ -1900,19 +1900,19 @@
         <v>49</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="37">
         <f t="shared" si="0"/>
@@ -1928,19 +1928,19 @@
         <v>49</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
       <c r="B21" s="39">
         <f t="shared" si="0"/>
@@ -1956,19 +1956,19 @@
         <v>49</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
       <c r="B22" s="37">
         <f t="shared" si="0"/>
@@ -1984,19 +1984,19 @@
         <v>49</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="39">
         <f t="shared" si="0"/>
@@ -2012,19 +2012,19 @@
         <v>49</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H23" s="47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I23" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
       <c r="B24" s="37">
         <f t="shared" si="0"/>
@@ -2040,19 +2040,19 @@
         <v>49</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H24" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="39">
         <f t="shared" si="0"/>
@@ -2068,19 +2068,19 @@
         <v>49</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H25" s="47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
       <c r="B26" s="37">
         <f t="shared" si="0"/>
@@ -2096,19 +2096,19 @@
         <v>49</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
       <c r="B27" s="39">
         <f t="shared" si="0"/>
@@ -2124,19 +2124,19 @@
         <v>50</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="47" t="s">
         <v>50</v>
       </c>
       <c r="I27" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="37">
         <f t="shared" si="0"/>
@@ -2152,19 +2152,19 @@
         <v>51</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
       <c r="B29" s="39">
         <f t="shared" si="0"/>
@@ -2180,19 +2180,19 @@
         <v>49</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H29" s="47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I29" s="47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.15" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="54" t="s">
         <v>19</v>
@@ -2204,7 +2204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2215,7 +2215,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="14"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2226,7 +2226,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="14"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2239,7 +2239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="14"/>
       <c r="B34" s="36"/>
       <c r="C34" s="17"/>
@@ -2250,17 +2250,17 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2288,69 +2288,69 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="110.59765625" customWidth="1"/>
+    <col min="2" max="2" width="110.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
@@ -2366,44 +2366,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="13.15" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/ESP8266_RGB_Matrix_Rev2.2.xlsx
+++ b/PCB/ESP8266_RGB_Matrix_Rev2.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrankin\Dropbox\Arduino_PCB\ESP8266_RGB_Matrix\Project Outputs for ESP8266_RGB_Matrix_Rev2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1D1CDC6E-C3DE-48D1-9772-82477FB70C23}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BE7B136-A214-45CA-A2D8-4C8252B229EB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8953" yWindow="587" windowWidth="18993" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -92,13 +92,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2018-06-09</t>
+    <t>2018-06-25</t>
   </si>
   <si>
     <t>ESP8266 RGB Matrix Rev2</t>
   </si>
   <si>
-    <t>9:17:29 PM</t>
+    <t>8:59:12 AM</t>
   </si>
   <si>
     <t>Designator</t>
@@ -119,10 +119,7 @@
     <t>D1</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
+    <t>D3, D4</t>
   </si>
   <si>
     <t>H1</t>
@@ -143,9 +140,6 @@
     <t>Q1, Q2</t>
   </si>
   <si>
-    <t>R1, R7</t>
-  </si>
-  <si>
     <t>R2, R12, R13</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>R8, R11</t>
   </si>
   <si>
-    <t>S1, S2</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>Digi-Key</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -197,7 +185,7 @@
     <t>LTST-C191KGKT</t>
   </si>
   <si>
-    <t>LTST-C191KFKT</t>
+    <t>LTST-C190KFKT</t>
   </si>
   <si>
     <t>1981584-1</t>
@@ -206,6 +194,9 @@
     <t>PPTC082LFBN-RC</t>
   </si>
   <si>
+    <t>FHP-04-01-T-S</t>
+  </si>
+  <si>
     <t>PJ-102AH</t>
   </si>
   <si>
@@ -224,9 +215,6 @@
     <t>ERJ-3EKF27R0V</t>
   </si>
   <si>
-    <t>122514</t>
-  </si>
-  <si>
     <t>ESP-12-E</t>
   </si>
   <si>
@@ -251,7 +239,7 @@
     <t>LED GREEN CLEAR 0603 SMD</t>
   </si>
   <si>
-    <t>LED SUPER RED CLR THIN 0603 SMD</t>
+    <t>LED,ORANGE,2V,20mA,SMT,0603,RoHS</t>
   </si>
   <si>
     <t>CONN RCPT MICRO USB TYPE AB</t>
@@ -260,6 +248,9 @@
     <t>CONN RECEPT 16POS .100 VERT DUAL</t>
   </si>
   <si>
+    <t>CONN RECEPT VERT 4POS .156 30AU</t>
+  </si>
+  <si>
     <t>CONN PWR JACK 2X5.5MM SOLDER</t>
   </si>
   <si>
@@ -269,9 +260,6 @@
     <t>TRANS NPN GP 40V SOT23</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
     <t>RES SMD 1K OHM 1% 1/10W 0603</t>
   </si>
   <si>
@@ -281,9 +269,6 @@
     <t>RES SMD 27 OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>DX_SWITCH TACTILE</t>
-  </si>
-  <si>
     <t>ESP8266 ESP-12-E</t>
   </si>
   <si>
@@ -311,6 +296,9 @@
     <t>Sullins</t>
   </si>
   <si>
+    <t>Samtec</t>
+  </si>
+  <si>
     <t>CUI</t>
   </si>
   <si>
@@ -329,58 +317,7 @@
     <t>FTDI</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>220uF</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>PWR Led</t>
-  </si>
-  <si>
-    <t>Tx Led</t>
-  </si>
-  <si>
-    <t>Rx Led</t>
-  </si>
-  <si>
-    <t>Micro USB</t>
-  </si>
-  <si>
-    <t>8x2 Socket</t>
-  </si>
-  <si>
-    <t>Matrix PWR</t>
-  </si>
-  <si>
-    <t>PWR Jack</t>
-  </si>
-  <si>
-    <t>3.3V LDO</t>
-  </si>
-  <si>
-    <t>MMBT3904</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>Mini PushButton</t>
-  </si>
-  <si>
-    <t>C:\Users\Lenovo\Dropbox\Arduino_PCB\ESP8266_RGB_Matrix\ESP8266_RGB_Matrix_Rev2.PrjPcb</t>
+    <t>C:\Users\mrankin\Dropbox\Arduino_PCB\ESP8266_RGB_Matrix\ESP8266_RGB_Matrix_Rev2.PrjPcb</t>
   </si>
   <si>
     <t>ESP8266_RGB_Matrix_Rev2.PrjPcb</t>
@@ -392,10 +329,10 @@
     <t>Bill of Materials For Project [ESP8266_RGB_Matrix_Rev2.PrjPcb] (No PCB Document Selected)</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2018-06-09 9:17:29 PM</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2018-06-25 8:59:12 AM</t>
   </si>
   <si>
     <t>Bill of Materials</t>
@@ -408,27 +345,6 @@
   </si>
   <si>
     <t>Rev2.2</t>
-  </si>
-  <si>
-    <t>ESP8266 RGB Matrix 64x32 Version</t>
-  </si>
-  <si>
-    <t>USB Interface</t>
-  </si>
-  <si>
-    <t>ESP8266</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RES SMD 10K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>FHP-04-01-T-S</t>
-  </si>
-  <si>
-    <t>Samtec</t>
-  </si>
-  <si>
-    <t>CONN RCPT .156" 4POS TIN T/H</t>
   </si>
 </sst>
 </file>
@@ -833,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -936,10 +852,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -980,12 +902,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -993,6 +909,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,7 +1012,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -1469,23 +1391,23 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.1171875" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.41015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.52734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.87890625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.234375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.17578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.41015625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.1171875" style="4" customWidth="1"/>
     <col min="6" max="6" width="20.1171875" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.52734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.64453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5859375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.8203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.1171875" style="1"/>
   </cols>
@@ -1510,7 +1432,7 @@
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="45" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="19"/>
@@ -1525,8 +1447,8 @@
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="44" t="s">
-        <v>129</v>
+      <c r="F3" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -1540,9 +1462,7 @@
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="23" t="s">
-        <v>128</v>
-      </c>
+      <c r="F4" s="23"/>
       <c r="G4" s="24"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
@@ -1576,10 +1496,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="29"/>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="44" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="29"/>
@@ -1595,11 +1515,11 @@
       <c r="D8" s="26"/>
       <c r="E8" s="30">
         <f ca="1">TODAY()</f>
-        <v>43273</v>
+        <v>43276</v>
       </c>
       <c r="F8" s="31">
         <f ca="1">NOW()</f>
-        <v>43273.411731712964</v>
+        <v>43276.374899884257</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -1607,86 +1527,80 @@
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="45" t="s">
+      <c r="D9" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>102</v>
-      </c>
+      <c r="G9" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14"/>
       <c r="B10" s="37">
-        <f t="shared" ref="B10:B29" si="0">ROW(B10) - ROW($B$9)</f>
+        <f t="shared" ref="B10:B26" si="0">ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="56">
         <v>3</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>103</v>
-      </c>
+      <c r="G10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14"/>
-      <c r="B11" s="39">
+      <c r="B11" s="40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="57">
         <v>2</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>104</v>
-      </c>
+      <c r="E11" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
@@ -1694,55 +1608,51 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="56">
         <v>1</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>105</v>
-      </c>
+      <c r="E12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14"/>
-      <c r="B13" s="39">
+      <c r="B13" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="57">
         <v>1</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>106</v>
-      </c>
+      <c r="E13" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14"/>
@@ -1750,55 +1660,51 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="56">
         <v>1</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>107</v>
-      </c>
+      <c r="E14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
-      <c r="B15" s="39">
+      <c r="B15" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="53">
-        <v>1</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>108</v>
-      </c>
+      <c r="D15" s="57">
+        <v>2</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14"/>
@@ -1806,55 +1712,51 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="56">
         <v>1</v>
       </c>
-      <c r="E16" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>109</v>
-      </c>
+      <c r="E16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
-      <c r="B17" s="39">
+      <c r="B17" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="53">
-        <v>1</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>110</v>
-      </c>
+      <c r="D17" s="57">
+        <v>2</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
@@ -1862,55 +1764,51 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="52">
-        <v>2</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>111</v>
-      </c>
+      <c r="D18" s="56">
+        <v>1</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14"/>
-      <c r="B19" s="39">
+      <c r="B19" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="57">
         <v>1</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>112</v>
-      </c>
+      <c r="E19" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
@@ -1918,55 +1816,51 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="56">
         <v>1</v>
       </c>
-      <c r="E20" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>113</v>
-      </c>
+      <c r="E20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14"/>
-      <c r="B21" s="39">
+      <c r="B21" s="40">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="53">
-        <v>1</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>114</v>
-      </c>
+      <c r="D21" s="57">
+        <v>2</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
@@ -1974,55 +1868,51 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="52">
-        <v>2</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>115</v>
-      </c>
+      <c r="D22" s="56">
+        <v>3</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
-      <c r="B23" s="39">
+      <c r="B23" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="53">
-        <v>2</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>82</v>
-      </c>
+      <c r="D23" s="57">
+        <v>5</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14"/>
@@ -2030,55 +1920,51 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="52">
-        <v>3</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>116</v>
-      </c>
+      <c r="D24" s="56">
+        <v>2</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
-      <c r="B25" s="39">
+      <c r="B25" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="53">
-        <v>5</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="47" t="s">
+      <c r="D25" s="57">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="49" t="s">
         <v>82</v>
       </c>
+      <c r="H25" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="14"/>
@@ -2086,188 +1972,102 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="52">
-        <v>2</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="48" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="56">
+        <v>1</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="14"/>
-      <c r="B27" s="39">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="53">
-        <v>2</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
-      <c r="B28" s="37">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="52">
-        <v>1</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="14"/>
-      <c r="B29" s="39">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="53">
-        <v>1</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="47" t="s">
-        <v>130</v>
-      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
-      <c r="B30" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="14"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="14"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.46" right="0.36" top="0.57999999999999996" bottom="1" header="0.5" footer="0.5"/>
@@ -2298,63 +2098,63 @@
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>119</v>
+      <c r="B1" s="51" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>120</v>
+      <c r="B2" s="52" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>121</v>
+      <c r="B3" s="53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>120</v>
+      <c r="B4" s="52" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>119</v>
+      <c r="B5" s="53" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>122</v>
+      <c r="B6" s="52" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>123</v>
+      <c r="B7" s="53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="52" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2362,7 +2162,7 @@
       <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="53" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2370,40 +2170,40 @@
       <c r="A10" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>124</v>
+      <c r="B10" s="52" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>125</v>
+      <c r="B11" s="53" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>126</v>
+      <c r="B12" s="52" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>127</v>
+      <c r="B13" s="53" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>125</v>
+      <c r="B14" s="52" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
